--- a/database/industries/darou/dejaber/product/quarterly.xlsx
+++ b/database/industries/darou/dejaber/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE9CDA1-D07F-4D48-B4CE-3F3B259C8E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دجابر-داروسازی‌ جابرابن‌حیان‌</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -117,9 +118,6 @@
     <t>برگشت از فروش</t>
   </si>
   <si>
-    <t>ریال</t>
-  </si>
-  <si>
     <t>مبلغ فروش</t>
   </si>
   <si>
@@ -129,7 +127,7 @@
     <t>نرخ فروش</t>
   </si>
   <si>
-    <t>ریال / ریال</t>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>تیوپ / ریال</t>
@@ -139,9 +137,6 @@
   </si>
   <si>
     <t>شیشه / ریال</t>
-  </si>
-  <si>
-    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -153,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,7 +318,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -335,7 +330,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -382,6 +377,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -417,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,17 +597,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -588,7 +617,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,7 +629,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -612,7 +641,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -622,7 +651,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -634,7 +663,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -646,7 +675,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -656,7 +685,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -678,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -688,7 +717,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -721,22 +750,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>131280</v>
+        <v>383400</v>
       </c>
       <c r="F11" s="11">
-        <v>383400</v>
+        <v>943680</v>
       </c>
       <c r="G11" s="11">
-        <v>943680</v>
+        <v>630700</v>
       </c>
       <c r="H11" s="11">
-        <v>630700</v>
+        <v>302040</v>
       </c>
       <c r="I11" s="11">
-        <v>302040</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>803247</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -745,22 +774,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1223355</v>
+        <v>1717474</v>
       </c>
       <c r="F12" s="9">
-        <v>1717474</v>
+        <v>1209860</v>
       </c>
       <c r="G12" s="9">
-        <v>1209860</v>
+        <v>425729</v>
       </c>
       <c r="H12" s="9">
-        <v>425729</v>
+        <v>774765</v>
       </c>
       <c r="I12" s="9">
-        <v>774765</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2440677</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -784,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -808,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -817,22 +846,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>57097</v>
+        <v>496440</v>
       </c>
       <c r="F15" s="11">
-        <v>496440</v>
+        <v>229672</v>
       </c>
       <c r="G15" s="11">
-        <v>229672</v>
+        <v>44254</v>
       </c>
       <c r="H15" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>686085</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -841,22 +870,22 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>120884930</v>
+        <v>91494170</v>
       </c>
       <c r="F16" s="9">
-        <v>91494170</v>
+        <v>60211810</v>
       </c>
       <c r="G16" s="9">
-        <v>60211810</v>
+        <v>83501390</v>
       </c>
       <c r="H16" s="9">
-        <v>83501390</v>
+        <v>75784470</v>
       </c>
       <c r="I16" s="9">
-        <v>75784470</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>94429140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -865,22 +894,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>10351940</v>
+        <v>8010568</v>
       </c>
       <c r="F17" s="11">
-        <v>8010568</v>
+        <v>6958264</v>
       </c>
       <c r="G17" s="11">
-        <v>6958264</v>
+        <v>8984643</v>
       </c>
       <c r="H17" s="11">
-        <v>8984643</v>
+        <v>7291860</v>
       </c>
       <c r="I17" s="11">
-        <v>7291860</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5319140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -904,7 +933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -928,7 +957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -950,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
@@ -974,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -982,11 +1011,11 @@
         <v>11</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -998,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
@@ -1009,20 +1038,20 @@
       <c r="E23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>12</v>
+      <c r="F23" s="11">
+        <v>0</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
       </c>
       <c r="H23" s="11">
-        <v>0</v>
+        <v>1574063</v>
       </c>
       <c r="I23" s="11">
-        <v>1574063</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>203029</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1046,29 +1075,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>132648602</v>
+        <v>102102052</v>
       </c>
       <c r="F25" s="13">
-        <v>102102052</v>
+        <v>69553286</v>
       </c>
       <c r="G25" s="13">
-        <v>69553286</v>
+        <v>93586716</v>
       </c>
       <c r="H25" s="13">
-        <v>93586716</v>
+        <v>85727198</v>
       </c>
       <c r="I25" s="13">
-        <v>85727198</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103881318</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1078,7 +1107,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1088,7 +1117,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1098,7 +1127,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
@@ -1120,7 +1149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1130,13 +1159,11 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
         <v>12</v>
@@ -1154,7 +1181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>13</v>
       </c>
@@ -1163,22 +1190,22 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>253200</v>
-      </c>
-      <c r="F32" s="11">
         <v>383400</v>
       </c>
+      <c r="F32" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G32" s="11">
-        <v>60000</v>
+        <v>571937</v>
       </c>
       <c r="H32" s="11">
-        <v>571937</v>
+        <v>321032</v>
       </c>
       <c r="I32" s="11">
-        <v>321032</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>628127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
@@ -1187,22 +1214,22 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>1437973</v>
-      </c>
-      <c r="F33" s="9">
         <v>1716668</v>
       </c>
+      <c r="F33" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G33" s="9">
-        <v>1209094</v>
+        <v>418225</v>
       </c>
       <c r="H33" s="9">
-        <v>418225</v>
+        <v>765958</v>
       </c>
       <c r="I33" s="9">
-        <v>765958</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2142929</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>18</v>
       </c>
@@ -1259,22 +1286,22 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>-1130181</v>
-      </c>
-      <c r="F36" s="11">
         <v>383295</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G36" s="11">
-        <v>364664</v>
+        <v>44254</v>
       </c>
       <c r="H36" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="I36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>641831</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>20</v>
       </c>
@@ -1283,22 +1310,22 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>79952906</v>
-      </c>
-      <c r="F37" s="9">
         <v>90626626</v>
       </c>
+      <c r="F37" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G37" s="9">
-        <v>59501000</v>
+        <v>82449360</v>
       </c>
       <c r="H37" s="9">
-        <v>82449360</v>
+        <v>75740060</v>
       </c>
       <c r="I37" s="9">
-        <v>75740060</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>87033020</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>21</v>
       </c>
@@ -1307,22 +1334,22 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>10526525</v>
-      </c>
-      <c r="F38" s="11">
         <v>7663418</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G38" s="11">
-        <v>6562020</v>
+        <v>8814280</v>
       </c>
       <c r="H38" s="11">
-        <v>8814280</v>
+        <v>7279425</v>
       </c>
       <c r="I38" s="11">
-        <v>7279425</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5456880</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>23</v>
       </c>
@@ -1370,7 +1397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>24</v>
       </c>
@@ -1379,8 +1406,8 @@
       <c r="E41" s="9">
         <v>0</v>
       </c>
-      <c r="F41" s="9">
-        <v>0</v>
+      <c r="F41" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -1392,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>25</v>
       </c>
@@ -1416,7 +1443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1451,8 @@
         <v>11</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9">
-        <v>0</v>
+      <c r="E43" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>12</v>
@@ -1440,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>27</v>
       </c>
@@ -1455,38 +1482,38 @@
         <v>12</v>
       </c>
       <c r="G44" s="11">
-        <v>0</v>
+        <v>377858</v>
       </c>
       <c r="H44" s="11">
-        <v>377858</v>
+        <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1560373</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>91040423</v>
+        <v>100773407</v>
       </c>
       <c r="F45" s="15">
-        <v>100773407</v>
+        <v>0</v>
       </c>
       <c r="G45" s="15">
-        <v>67696778</v>
+        <v>92675914</v>
       </c>
       <c r="H45" s="15">
-        <v>92675914</v>
+        <v>84106475</v>
       </c>
       <c r="I45" s="15">
-        <v>84106475</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97463160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1496,7 +1523,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1506,7 +1533,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1516,9 +1543,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1538,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1548,12 +1575,12 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
@@ -1572,60 +1599,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>12602</v>
-      </c>
-      <c r="F52" s="11">
         <v>20320</v>
       </c>
+      <c r="F52" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G52" s="11">
-        <v>3180</v>
+        <v>30312</v>
       </c>
       <c r="H52" s="11">
-        <v>30312</v>
+        <v>20605</v>
       </c>
       <c r="I52" s="11">
-        <v>20605</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40720</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>513907</v>
-      </c>
-      <c r="F53" s="9">
         <v>531021</v>
       </c>
+      <c r="F53" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G53" s="9">
-        <v>262492</v>
+        <v>59153</v>
       </c>
       <c r="H53" s="9">
-        <v>59153</v>
+        <v>259798</v>
       </c>
       <c r="I53" s="9">
-        <v>259798</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>770973</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
@@ -1644,12 +1671,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
@@ -1668,84 +1695,84 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>2363</v>
-      </c>
-      <c r="F56" s="11">
         <v>21356</v>
       </c>
+      <c r="F56" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G56" s="11">
-        <v>27505</v>
+        <v>3319</v>
       </c>
       <c r="H56" s="11">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128927</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>1084470</v>
-      </c>
-      <c r="F57" s="9">
         <v>630049</v>
       </c>
+      <c r="F57" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G57" s="9">
-        <v>402678</v>
+        <v>737557</v>
       </c>
       <c r="H57" s="9">
-        <v>737557</v>
+        <v>679756</v>
       </c>
       <c r="I57" s="9">
-        <v>679756</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1112668</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>493708</v>
-      </c>
-      <c r="F58" s="11">
         <v>384440</v>
       </c>
+      <c r="F58" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G58" s="11">
-        <v>411816</v>
+        <v>347717</v>
       </c>
       <c r="H58" s="11">
-        <v>347717</v>
+        <v>1358975</v>
       </c>
       <c r="I58" s="11">
-        <v>1358975</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>655675</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
@@ -1764,12 +1791,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
@@ -1788,36 +1815,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>-172857</v>
-      </c>
-      <c r="F61" s="9">
         <v>-140160</v>
       </c>
+      <c r="F61" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G61" s="9">
-        <v>-162249</v>
+        <v>-134349</v>
       </c>
       <c r="H61" s="9">
-        <v>-134349</v>
+        <v>-274170</v>
       </c>
       <c r="I61" s="9">
-        <v>-274170</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-287425</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
@@ -1836,16 +1863,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9">
-        <v>0</v>
+      <c r="E63" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>12</v>
@@ -1860,12 +1887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
@@ -1875,38 +1902,38 @@
         <v>12</v>
       </c>
       <c r="G64" s="11">
-        <v>88873</v>
+        <v>46070</v>
       </c>
       <c r="H64" s="11">
-        <v>46070</v>
+        <v>42922</v>
       </c>
       <c r="I64" s="11">
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18613</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
-        <v>1934193</v>
+        <v>1447026</v>
       </c>
       <c r="F65" s="15">
-        <v>1447026</v>
+        <v>0</v>
       </c>
       <c r="G65" s="15">
-        <v>1034295</v>
+        <v>1089779</v>
       </c>
       <c r="H65" s="15">
-        <v>1089779</v>
+        <v>2087886</v>
       </c>
       <c r="I65" s="15">
-        <v>2087886</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2440151</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1916,7 +1943,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1926,7 +1953,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1936,9 +1963,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1958,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1968,12 +1995,12 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
@@ -1992,60 +2019,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>49771</v>
+        <v>52999</v>
       </c>
       <c r="F72" s="11">
+        <v>53000</v>
+      </c>
+      <c r="G72" s="11">
         <v>52999</v>
       </c>
-      <c r="G72" s="11">
-        <v>53000</v>
-      </c>
       <c r="H72" s="11">
-        <v>52999</v>
+        <v>64184</v>
       </c>
       <c r="I72" s="11">
-        <v>64184</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64828</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>357383</v>
+        <v>309332</v>
       </c>
       <c r="F73" s="9">
-        <v>309332</v>
+        <v>217098</v>
       </c>
       <c r="G73" s="9">
-        <v>217098</v>
+        <v>141438</v>
       </c>
       <c r="H73" s="9">
-        <v>141438</v>
+        <v>339180</v>
       </c>
       <c r="I73" s="9">
-        <v>339180</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>359775</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
@@ -2064,12 +2091,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
@@ -2088,84 +2115,84 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>67514</v>
+        <v>55717</v>
       </c>
       <c r="F76" s="11">
-        <v>55717</v>
+        <v>75426</v>
       </c>
       <c r="G76" s="11">
-        <v>75426</v>
-      </c>
-      <c r="H76" s="11">
         <v>74999</v>
       </c>
-      <c r="I76" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="11">
+        <v>200874</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>8224</v>
+        <v>6952</v>
       </c>
       <c r="F77" s="9">
-        <v>6952</v>
+        <v>6768</v>
       </c>
       <c r="G77" s="9">
-        <v>6768</v>
+        <v>8946</v>
       </c>
       <c r="H77" s="9">
-        <v>8946</v>
+        <v>8975</v>
       </c>
       <c r="I77" s="9">
-        <v>8975</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12784</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>46901</v>
+        <v>50166</v>
       </c>
       <c r="F78" s="11">
-        <v>50166</v>
+        <v>62758</v>
       </c>
       <c r="G78" s="11">
-        <v>62758</v>
+        <v>39449</v>
       </c>
       <c r="H78" s="11">
-        <v>39449</v>
+        <v>186687</v>
       </c>
       <c r="I78" s="11">
-        <v>186687</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120156</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
@@ -2184,12 +2211,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
@@ -2208,12 +2235,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
@@ -2232,12 +2259,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
@@ -2256,12 +2283,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
@@ -2280,12 +2307,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
@@ -2294,17 +2321,17 @@
       <c r="F84" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="11">
+      <c r="G84" s="11">
         <v>121924</v>
       </c>
-      <c r="I84" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="11">
+        <v>11929</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2314,7 +2341,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2324,7 +2351,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2334,9 +2361,9 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2356,7 +2383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2366,12 +2393,12 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
@@ -2390,132 +2417,132 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>-11760</v>
+        <v>-14979</v>
       </c>
       <c r="F91" s="11">
-        <v>-14979</v>
+        <v>-2472</v>
       </c>
       <c r="G91" s="11">
-        <v>-2472</v>
+        <v>-27694</v>
       </c>
       <c r="H91" s="11">
-        <v>-27694</v>
+        <v>-17797</v>
       </c>
       <c r="I91" s="11">
-        <v>-17797</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-33584</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
-        <v>-387818</v>
+        <v>-312528</v>
       </c>
       <c r="F92" s="9">
-        <v>-312528</v>
+        <v>-157557</v>
       </c>
       <c r="G92" s="9">
-        <v>-157557</v>
+        <v>-64212</v>
       </c>
       <c r="H92" s="9">
-        <v>-64212</v>
+        <v>-182319</v>
       </c>
       <c r="I92" s="9">
-        <v>-182319</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-608505</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>-2050</v>
+        <v>-16342</v>
       </c>
       <c r="F93" s="11">
-        <v>-16342</v>
+        <v>-9543</v>
       </c>
       <c r="G93" s="11">
-        <v>-9543</v>
+        <v>-911</v>
       </c>
       <c r="H93" s="11">
-        <v>-911</v>
+        <v>-2069</v>
       </c>
       <c r="I93" s="11">
-        <v>-2069</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-94989</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
-        <v>-606505</v>
+        <v>-386905</v>
       </c>
       <c r="F94" s="9">
-        <v>-386905</v>
+        <v>-283421</v>
       </c>
       <c r="G94" s="9">
-        <v>-283421</v>
+        <v>-419829</v>
       </c>
       <c r="H94" s="9">
-        <v>-419829</v>
+        <v>-419682</v>
       </c>
       <c r="I94" s="9">
-        <v>-419682</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-632938</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>-247733</v>
+        <v>-286600</v>
       </c>
       <c r="F95" s="11">
-        <v>-286600</v>
+        <v>-249727</v>
       </c>
       <c r="G95" s="11">
-        <v>-249727</v>
+        <v>-260505</v>
       </c>
       <c r="H95" s="11">
-        <v>-260505</v>
+        <v>-769179</v>
       </c>
       <c r="I95" s="11">
-        <v>-769179</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-269139</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
@@ -2534,19 +2561,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11">
-        <v>0</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>12</v>
+      <c r="E97" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="11">
+        <v>0</v>
       </c>
       <c r="G97" s="11">
         <v>0</v>
@@ -2558,53 +2585,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="9" t="s">
-        <v>12</v>
+      <c r="F98" s="9">
+        <v>-53693</v>
       </c>
       <c r="G98" s="9">
-        <v>-53693</v>
+        <v>-39548</v>
       </c>
       <c r="H98" s="9">
-        <v>-39548</v>
+        <v>-34911</v>
       </c>
       <c r="I98" s="9">
-        <v>-34911</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-11092</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
-        <v>-1255866</v>
+        <v>-1017354</v>
       </c>
       <c r="F99" s="13">
-        <v>-1017354</v>
+        <v>-756413</v>
       </c>
       <c r="G99" s="13">
-        <v>-756413</v>
+        <v>-812699</v>
       </c>
       <c r="H99" s="13">
-        <v>-812699</v>
+        <v>-1425957</v>
       </c>
       <c r="I99" s="13">
-        <v>-1425957</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1650247</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2614,7 +2641,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2624,7 +2651,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2634,9 +2661,9 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -2656,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2666,12 +2693,12 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
@@ -2690,163 +2717,163 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>842</v>
+        <v>5341</v>
       </c>
       <c r="F106" s="11">
-        <v>5341</v>
+        <v>708</v>
       </c>
       <c r="G106" s="11">
-        <v>708</v>
+        <v>2618</v>
       </c>
       <c r="H106" s="11">
-        <v>2618</v>
+        <v>2808</v>
       </c>
       <c r="I106" s="11">
-        <v>2808</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>126089</v>
+        <v>218493</v>
       </c>
       <c r="F107" s="9">
-        <v>218493</v>
+        <v>104935</v>
       </c>
       <c r="G107" s="9">
-        <v>104935</v>
+        <v>-5059</v>
       </c>
       <c r="H107" s="9">
-        <v>-5059</v>
+        <v>77479</v>
       </c>
       <c r="I107" s="9">
-        <v>77479</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>162468</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>313</v>
+        <v>5014</v>
       </c>
       <c r="F108" s="11">
-        <v>5014</v>
+        <v>17962</v>
       </c>
       <c r="G108" s="11">
-        <v>17962</v>
+        <v>2408</v>
       </c>
       <c r="H108" s="11">
-        <v>2408</v>
+        <v>-2069</v>
       </c>
       <c r="I108" s="11">
-        <v>-2069</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33938</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>477965</v>
+        <v>243144</v>
       </c>
       <c r="F109" s="9">
-        <v>243144</v>
+        <v>119257</v>
       </c>
       <c r="G109" s="9">
-        <v>119257</v>
+        <v>317728</v>
       </c>
       <c r="H109" s="9">
-        <v>317728</v>
+        <v>260074</v>
       </c>
       <c r="I109" s="9">
-        <v>260074</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>479730</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>245975</v>
+        <v>97840</v>
       </c>
       <c r="F110" s="11">
-        <v>97840</v>
+        <v>162089</v>
       </c>
       <c r="G110" s="11">
-        <v>162089</v>
+        <v>87212</v>
       </c>
       <c r="H110" s="11">
-        <v>87212</v>
+        <v>589796</v>
       </c>
       <c r="I110" s="11">
-        <v>589796</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>386536</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>-172858</v>
+        <v>-140160</v>
       </c>
       <c r="F111" s="9">
-        <v>-140160</v>
+        <v>-162249</v>
       </c>
       <c r="G111" s="9">
-        <v>-162249</v>
+        <v>-134348</v>
       </c>
       <c r="H111" s="9">
-        <v>-134348</v>
+        <v>-274171</v>
       </c>
       <c r="I111" s="9">
-        <v>-274171</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-287425</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11">
-        <v>0</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>12</v>
+      <c r="E112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="11">
+        <v>0</v>
       </c>
       <c r="G112" s="11">
         <v>0</v>
@@ -2858,50 +2885,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="9" t="s">
-        <v>12</v>
+      <c r="F113" s="9">
+        <v>35180</v>
       </c>
       <c r="G113" s="9">
-        <v>35180</v>
+        <v>6522</v>
       </c>
       <c r="H113" s="9">
-        <v>6522</v>
+        <v>8011</v>
       </c>
       <c r="I113" s="9">
-        <v>8011</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>678326</v>
+        <v>429672</v>
       </c>
       <c r="F114" s="13">
-        <v>429672</v>
+        <v>277882</v>
       </c>
       <c r="G114" s="13">
-        <v>277882</v>
+        <v>277081</v>
       </c>
       <c r="H114" s="13">
-        <v>277081</v>
+        <v>661928</v>
       </c>
       <c r="I114" s="13">
-        <v>661928</v>
+        <v>789904</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/dejaber/product/quarterly.xlsx
+++ b/database/industries/darou/dejaber/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC827A93-7668-4830-A444-E75897B2E6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE22A28-AC5B-4931-BA95-A3BC5217E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر</t>
@@ -620,12 +620,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -640,7 +640,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -689,7 +689,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,7 +738,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -790,7 +790,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -798,15 +798,15 @@
         <v>16</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
+      <c r="E10" s="9">
+        <v>7880327</v>
       </c>
       <c r="F10" s="9">
-        <v>7880327</v>
-      </c>
-      <c r="G10" s="9">
         <v>-7880327</v>
       </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
@@ -829,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -838,37 +838,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1114920</v>
+        <v>116280</v>
       </c>
       <c r="F11" s="11">
-        <v>116280</v>
+        <v>2119962</v>
       </c>
       <c r="G11" s="11">
-        <v>2119962</v>
+        <v>528120</v>
       </c>
       <c r="H11" s="11">
-        <v>528120</v>
+        <v>131280</v>
       </c>
       <c r="I11" s="11">
-        <v>131280</v>
+        <v>383400</v>
       </c>
       <c r="J11" s="11">
-        <v>383400</v>
+        <v>943680</v>
       </c>
       <c r="K11" s="11">
-        <v>943680</v>
+        <v>630700</v>
       </c>
       <c r="L11" s="11">
-        <v>630700</v>
+        <v>302040</v>
       </c>
       <c r="M11" s="11">
-        <v>302040</v>
+        <v>803247</v>
       </c>
       <c r="N11" s="11">
-        <v>803247</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84973</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
@@ -877,37 +877,37 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1752983</v>
+        <v>1395060</v>
       </c>
       <c r="F12" s="9">
-        <v>1395060</v>
+        <v>459645</v>
       </c>
       <c r="G12" s="9">
-        <v>459645</v>
+        <v>912853</v>
       </c>
       <c r="H12" s="9">
-        <v>912853</v>
+        <v>1223355</v>
       </c>
       <c r="I12" s="9">
-        <v>1223355</v>
+        <v>1717474</v>
       </c>
       <c r="J12" s="9">
-        <v>1717474</v>
+        <v>1209860</v>
       </c>
       <c r="K12" s="9">
-        <v>1209860</v>
+        <v>425729</v>
       </c>
       <c r="L12" s="9">
-        <v>425729</v>
+        <v>774765</v>
       </c>
       <c r="M12" s="9">
-        <v>774765</v>
+        <v>2440677</v>
       </c>
       <c r="N12" s="9">
-        <v>2440677</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>831776</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -946,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
@@ -994,37 +994,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>438590</v>
+        <v>551054</v>
       </c>
       <c r="F15" s="11">
-        <v>551054</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
       </c>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>57097</v>
       </c>
       <c r="I15" s="11">
-        <v>57097</v>
+        <v>496440</v>
       </c>
       <c r="J15" s="11">
-        <v>496440</v>
+        <v>229672</v>
       </c>
       <c r="K15" s="11">
-        <v>229672</v>
+        <v>44254</v>
       </c>
       <c r="L15" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="M15" s="11">
-        <v>0</v>
+        <v>686085</v>
       </c>
       <c r="N15" s="11">
-        <v>686085</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>726998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1033,37 +1033,37 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>49571730</v>
+        <v>46572990</v>
       </c>
       <c r="F16" s="9">
-        <v>46572990</v>
+        <v>29898584</v>
       </c>
       <c r="G16" s="9">
-        <v>29898584</v>
+        <v>29805876</v>
       </c>
       <c r="H16" s="9">
-        <v>29805876</v>
+        <v>120884930</v>
       </c>
       <c r="I16" s="9">
-        <v>120884930</v>
+        <v>91494170</v>
       </c>
       <c r="J16" s="9">
-        <v>91494170</v>
+        <v>60211810</v>
       </c>
       <c r="K16" s="9">
-        <v>60211810</v>
+        <v>83501390</v>
       </c>
       <c r="L16" s="9">
-        <v>83501390</v>
+        <v>75784470</v>
       </c>
       <c r="M16" s="9">
-        <v>75784470</v>
+        <v>94429140</v>
       </c>
       <c r="N16" s="9">
-        <v>94429140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>104382144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1072,37 +1072,37 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>8227755</v>
+        <v>7590642</v>
       </c>
       <c r="F17" s="11">
-        <v>7590642</v>
+        <v>12037967</v>
       </c>
       <c r="G17" s="11">
-        <v>12037967</v>
+        <v>6752745</v>
       </c>
       <c r="H17" s="11">
-        <v>6752745</v>
+        <v>10351940</v>
       </c>
       <c r="I17" s="11">
-        <v>10351940</v>
+        <v>8010568</v>
       </c>
       <c r="J17" s="11">
-        <v>8010568</v>
+        <v>6958264</v>
       </c>
       <c r="K17" s="11">
-        <v>6958264</v>
+        <v>8984643</v>
       </c>
       <c r="L17" s="11">
-        <v>8984643</v>
+        <v>7291860</v>
       </c>
       <c r="M17" s="11">
-        <v>7291860</v>
+        <v>5319140</v>
       </c>
       <c r="N17" s="11">
-        <v>5319140</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6323679</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1195,8 +1195,8 @@
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
+      <c r="H20" s="9">
+        <v>0</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>30</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1270,17 +1270,17 @@
       <c r="F22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>17</v>
+      <c r="G22" s="9">
+        <v>0</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>17</v>
+      <c r="I22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4326274</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>32</v>
       </c>
@@ -1318,23 +1318,23 @@
       <c r="I23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>17</v>
+      <c r="J23" s="11">
+        <v>0</v>
       </c>
       <c r="K23" s="11">
         <v>0</v>
       </c>
       <c r="L23" s="11">
-        <v>0</v>
+        <v>1574063</v>
       </c>
       <c r="M23" s="11">
-        <v>1574063</v>
+        <v>203029</v>
       </c>
       <c r="N23" s="11">
-        <v>203029</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2549182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>33</v>
       </c>
@@ -1373,44 +1373,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>61105978</v>
+        <v>64106353</v>
       </c>
       <c r="F25" s="13">
-        <v>64106353</v>
+        <v>36635831</v>
       </c>
       <c r="G25" s="13">
-        <v>36635831</v>
+        <v>37999594</v>
       </c>
       <c r="H25" s="13">
-        <v>37999594</v>
+        <v>132648602</v>
       </c>
       <c r="I25" s="13">
-        <v>132648602</v>
+        <v>102102052</v>
       </c>
       <c r="J25" s="13">
-        <v>102102052</v>
+        <v>69553286</v>
       </c>
       <c r="K25" s="13">
-        <v>69553286</v>
+        <v>93586716</v>
       </c>
       <c r="L25" s="13">
-        <v>93586716</v>
+        <v>85727198</v>
       </c>
       <c r="M25" s="13">
-        <v>85727198</v>
+        <v>103881318</v>
       </c>
       <c r="N25" s="13">
-        <v>103881318</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119225026</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1425,7 +1425,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1440,7 +1440,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1455,7 +1455,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>35</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1507,7 +1507,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>36</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1558,8 +1558,8 @@
       <c r="F32" s="11">
         <v>0</v>
       </c>
-      <c r="G32" s="11">
-        <v>0</v>
+      <c r="G32" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>17</v>
@@ -1583,7 +1583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>18</v>
       </c>
@@ -1592,37 +1592,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>351930</v>
+        <v>116280</v>
       </c>
       <c r="F33" s="9">
-        <v>116280</v>
+        <v>293400</v>
       </c>
       <c r="G33" s="9">
-        <v>293400</v>
+        <v>405810</v>
       </c>
       <c r="H33" s="9">
-        <v>405810</v>
+        <v>253200</v>
       </c>
       <c r="I33" s="9">
-        <v>253200</v>
-      </c>
-      <c r="J33" s="9">
         <v>383400</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>17</v>
+      <c r="J33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="9">
+        <v>571937</v>
       </c>
       <c r="L33" s="9">
-        <v>571937</v>
+        <v>321032</v>
       </c>
       <c r="M33" s="9">
-        <v>321032</v>
+        <v>628127</v>
       </c>
       <c r="N33" s="9">
-        <v>628127</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>294791</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>20</v>
       </c>
@@ -1631,37 +1631,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>1888422</v>
+        <v>1618280</v>
       </c>
       <c r="F34" s="11">
-        <v>1618280</v>
+        <v>326400</v>
       </c>
       <c r="G34" s="11">
-        <v>326400</v>
+        <v>753857</v>
       </c>
       <c r="H34" s="11">
-        <v>753857</v>
+        <v>1437973</v>
       </c>
       <c r="I34" s="11">
-        <v>1437973</v>
-      </c>
-      <c r="J34" s="11">
         <v>1716668</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>17</v>
+      <c r="J34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="11">
+        <v>418225</v>
       </c>
       <c r="L34" s="11">
-        <v>418225</v>
+        <v>765958</v>
       </c>
       <c r="M34" s="11">
-        <v>765958</v>
+        <v>2142929</v>
       </c>
       <c r="N34" s="11">
-        <v>2142929</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>673764</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>21</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>22</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>23</v>
       </c>
@@ -1748,37 +1748,37 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>392810</v>
+        <v>513046</v>
       </c>
       <c r="F37" s="9">
-        <v>513046</v>
+        <v>203696</v>
       </c>
       <c r="G37" s="9">
-        <v>203696</v>
+        <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
+        <v>-1130181</v>
       </c>
       <c r="I37" s="9">
-        <v>-1130181</v>
-      </c>
-      <c r="J37" s="9">
         <v>383295</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>17</v>
+      <c r="J37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="9">
+        <v>44254</v>
       </c>
       <c r="L37" s="9">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="M37" s="9">
-        <v>0</v>
+        <v>641831</v>
       </c>
       <c r="N37" s="9">
-        <v>641831</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>677852</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>25</v>
       </c>
@@ -1787,37 +1787,37 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>44391168</v>
+        <v>133964141</v>
       </c>
       <c r="F38" s="11">
-        <v>133964141</v>
+        <v>23875824</v>
       </c>
       <c r="G38" s="11">
-        <v>23875824</v>
+        <v>20222968</v>
       </c>
       <c r="H38" s="11">
-        <v>20222968</v>
+        <v>79952906</v>
       </c>
       <c r="I38" s="11">
-        <v>79952906</v>
-      </c>
-      <c r="J38" s="11">
         <v>90626626</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>17</v>
+      <c r="J38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11">
+        <v>82449360</v>
       </c>
       <c r="L38" s="11">
-        <v>82449360</v>
+        <v>75740060</v>
       </c>
       <c r="M38" s="11">
-        <v>75740060</v>
+        <v>87033020</v>
       </c>
       <c r="N38" s="11">
-        <v>87033020</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91456070</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>26</v>
       </c>
@@ -1826,37 +1826,37 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>8157025</v>
+        <v>7644750</v>
       </c>
       <c r="F39" s="9">
-        <v>7644750</v>
+        <v>10881931</v>
       </c>
       <c r="G39" s="9">
-        <v>10881931</v>
+        <v>6463310</v>
       </c>
       <c r="H39" s="9">
-        <v>6463310</v>
+        <v>10526525</v>
       </c>
       <c r="I39" s="9">
-        <v>10526525</v>
-      </c>
-      <c r="J39" s="9">
         <v>7663418</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9">
+        <v>8814280</v>
       </c>
       <c r="L39" s="9">
-        <v>8814280</v>
+        <v>7279425</v>
       </c>
       <c r="M39" s="9">
-        <v>7279425</v>
+        <v>5456880</v>
       </c>
       <c r="N39" s="9">
-        <v>5456880</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5117372</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>27</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>28</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>29</v>
       </c>
@@ -1955,11 +1955,11 @@
       <c r="I42" s="11">
         <v>0</v>
       </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>17</v>
+      <c r="J42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
       </c>
       <c r="L42" s="11">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>31</v>
       </c>
@@ -2030,14 +2030,14 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-      <c r="I44" s="11">
-        <v>0</v>
+      <c r="I44" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>17</v>
+      <c r="K44" s="11">
+        <v>0</v>
       </c>
       <c r="L44" s="11">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
@@ -2075,57 +2075,57 @@
       <c r="J45" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>17</v>
+      <c r="K45" s="9">
+        <v>377858</v>
       </c>
       <c r="L45" s="9">
-        <v>377858</v>
+        <v>0</v>
       </c>
       <c r="M45" s="9">
-        <v>0</v>
+        <v>1560373</v>
       </c>
       <c r="N45" s="9">
-        <v>1560373</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>237786</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>55181355</v>
+        <v>143856497</v>
       </c>
       <c r="F46" s="13">
-        <v>143856497</v>
+        <v>35581251</v>
       </c>
       <c r="G46" s="13">
-        <v>35581251</v>
+        <v>27845945</v>
       </c>
       <c r="H46" s="13">
-        <v>27845945</v>
+        <v>91040423</v>
       </c>
       <c r="I46" s="13">
-        <v>91040423</v>
+        <v>100773407</v>
       </c>
       <c r="J46" s="13">
-        <v>100773407</v>
+        <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>0</v>
+        <v>92675914</v>
       </c>
       <c r="L46" s="13">
-        <v>92675914</v>
+        <v>84106475</v>
       </c>
       <c r="M46" s="13">
-        <v>84106475</v>
+        <v>97463160</v>
       </c>
       <c r="N46" s="13">
-        <v>97463160</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98457635</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2140,7 +2140,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2155,7 +2155,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2170,7 +2170,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>38</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2222,7 +2222,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>36</v>
       </c>
@@ -2231,14 +2231,14 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>-3547</v>
+        <v>-80979</v>
       </c>
       <c r="F52" s="9">
-        <v>-80979</v>
-      </c>
-      <c r="G52" s="9">
         <v>116128</v>
       </c>
+      <c r="G52" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" s="9" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>18</v>
       </c>
@@ -2270,37 +2270,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>10303</v>
+        <v>6646</v>
       </c>
       <c r="F53" s="11">
-        <v>6646</v>
+        <v>11754</v>
       </c>
       <c r="G53" s="11">
-        <v>11754</v>
+        <v>15540</v>
       </c>
       <c r="H53" s="11">
-        <v>15540</v>
+        <v>12602</v>
       </c>
       <c r="I53" s="11">
-        <v>12602</v>
-      </c>
-      <c r="J53" s="11">
         <v>20320</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>17</v>
+      <c r="J53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="11">
+        <v>30312</v>
       </c>
       <c r="L53" s="11">
-        <v>30312</v>
+        <v>20605</v>
       </c>
       <c r="M53" s="11">
-        <v>20605</v>
+        <v>40720</v>
       </c>
       <c r="N53" s="11">
-        <v>40720</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24605</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>20</v>
       </c>
@@ -2309,37 +2309,37 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>681393</v>
+        <v>587558</v>
       </c>
       <c r="F54" s="9">
-        <v>587558</v>
+        <v>10628</v>
       </c>
       <c r="G54" s="9">
-        <v>10628</v>
+        <v>237935</v>
       </c>
       <c r="H54" s="9">
-        <v>237935</v>
+        <v>513907</v>
       </c>
       <c r="I54" s="9">
-        <v>513907</v>
-      </c>
-      <c r="J54" s="9">
         <v>531021</v>
       </c>
-      <c r="K54" s="9" t="s">
-        <v>17</v>
+      <c r="J54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9">
+        <v>59153</v>
       </c>
       <c r="L54" s="9">
-        <v>59153</v>
+        <v>259798</v>
       </c>
       <c r="M54" s="9">
-        <v>259798</v>
+        <v>770973</v>
       </c>
       <c r="N54" s="9">
-        <v>770973</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>154312</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>21</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>22</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>23</v>
       </c>
@@ -2426,37 +2426,37 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>20525</v>
+        <v>31170</v>
       </c>
       <c r="F57" s="11">
-        <v>31170</v>
+        <v>14254</v>
       </c>
       <c r="G57" s="11">
-        <v>14254</v>
+        <v>0</v>
       </c>
       <c r="H57" s="11">
-        <v>0</v>
+        <v>2363</v>
       </c>
       <c r="I57" s="11">
-        <v>2363</v>
-      </c>
-      <c r="J57" s="11">
         <v>21356</v>
       </c>
-      <c r="K57" s="11" t="s">
-        <v>17</v>
+      <c r="J57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="11">
+        <v>3319</v>
       </c>
       <c r="L57" s="11">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="M57" s="11">
-        <v>0</v>
+        <v>128927</v>
       </c>
       <c r="N57" s="11">
-        <v>128927</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117201</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>25</v>
       </c>
@@ -2465,37 +2465,37 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>190131</v>
+        <v>323221</v>
       </c>
       <c r="F58" s="9">
-        <v>323221</v>
+        <v>140933</v>
       </c>
       <c r="G58" s="9">
-        <v>140933</v>
+        <v>91896</v>
       </c>
       <c r="H58" s="9">
-        <v>91896</v>
+        <v>1084470</v>
       </c>
       <c r="I58" s="9">
-        <v>1084470</v>
-      </c>
-      <c r="J58" s="9">
         <v>630049</v>
       </c>
-      <c r="K58" s="9" t="s">
-        <v>17</v>
+      <c r="J58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="9">
+        <v>737557</v>
       </c>
       <c r="L58" s="9">
-        <v>737557</v>
+        <v>679756</v>
       </c>
       <c r="M58" s="9">
-        <v>679756</v>
+        <v>1112668</v>
       </c>
       <c r="N58" s="9">
-        <v>1112668</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>577292</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>26</v>
       </c>
@@ -2504,37 +2504,37 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>321949</v>
+        <v>524531</v>
       </c>
       <c r="F59" s="11">
-        <v>524531</v>
+        <v>451876</v>
       </c>
       <c r="G59" s="11">
-        <v>451876</v>
+        <v>370721</v>
       </c>
       <c r="H59" s="11">
-        <v>370721</v>
+        <v>493708</v>
       </c>
       <c r="I59" s="11">
-        <v>493708</v>
-      </c>
-      <c r="J59" s="11">
         <v>384440</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>17</v>
+      <c r="J59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="11">
+        <v>347717</v>
       </c>
       <c r="L59" s="11">
-        <v>347717</v>
+        <v>1358975</v>
       </c>
       <c r="M59" s="11">
-        <v>1358975</v>
+        <v>655675</v>
       </c>
       <c r="N59" s="11">
-        <v>655675</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136043</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>27</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>28</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2621,37 +2621,37 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>-142059</v>
+        <v>-296558</v>
       </c>
       <c r="F62" s="9">
-        <v>-296558</v>
+        <v>-40756</v>
       </c>
       <c r="G62" s="9">
-        <v>-40756</v>
+        <v>-40336</v>
       </c>
       <c r="H62" s="9">
-        <v>-40336</v>
+        <v>-172857</v>
       </c>
       <c r="I62" s="9">
-        <v>-172857</v>
-      </c>
-      <c r="J62" s="9">
         <v>-140160</v>
       </c>
-      <c r="K62" s="9" t="s">
-        <v>17</v>
+      <c r="J62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="9">
+        <v>-134349</v>
       </c>
       <c r="L62" s="9">
-        <v>-134349</v>
+        <v>-274170</v>
       </c>
       <c r="M62" s="9">
-        <v>-274170</v>
+        <v>-287425</v>
       </c>
       <c r="N62" s="9">
-        <v>-287425</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>695944</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>30</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>31</v>
       </c>
@@ -2710,14 +2710,14 @@
       <c r="H64" s="9">
         <v>0</v>
       </c>
-      <c r="I64" s="9">
-        <v>0</v>
+      <c r="I64" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="9" t="s">
-        <v>17</v>
+      <c r="K64" s="9">
+        <v>0</v>
       </c>
       <c r="L64" s="9">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>32</v>
       </c>
@@ -2755,57 +2755,57 @@
       <c r="J65" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="11" t="s">
-        <v>17</v>
+      <c r="K65" s="11">
+        <v>46070</v>
       </c>
       <c r="L65" s="11">
-        <v>46070</v>
+        <v>42922</v>
       </c>
       <c r="M65" s="11">
-        <v>42922</v>
+        <v>18613</v>
       </c>
       <c r="N65" s="11">
-        <v>18613</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16768</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
-        <v>1078695</v>
+        <v>1095589</v>
       </c>
       <c r="F66" s="15">
-        <v>1095589</v>
+        <v>704817</v>
       </c>
       <c r="G66" s="15">
-        <v>704817</v>
+        <v>675756</v>
       </c>
       <c r="H66" s="15">
-        <v>675756</v>
+        <v>1934193</v>
       </c>
       <c r="I66" s="15">
-        <v>1934193</v>
+        <v>1447026</v>
       </c>
       <c r="J66" s="15">
-        <v>1447026</v>
+        <v>0</v>
       </c>
       <c r="K66" s="15">
-        <v>0</v>
+        <v>1089779</v>
       </c>
       <c r="L66" s="15">
-        <v>1089779</v>
+        <v>2087886</v>
       </c>
       <c r="M66" s="15">
-        <v>2087886</v>
+        <v>2440151</v>
       </c>
       <c r="N66" s="15">
-        <v>2440151</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1722165</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2820,7 +2820,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2835,7 +2835,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2850,7 +2850,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>40</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2902,7 +2902,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>18</v>
       </c>
@@ -2950,37 +2950,37 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>29276</v>
+        <v>40058</v>
       </c>
       <c r="F73" s="11">
-        <v>40058</v>
+        <v>40061</v>
       </c>
       <c r="G73" s="11">
-        <v>40061</v>
+        <v>38294</v>
       </c>
       <c r="H73" s="11">
-        <v>38294</v>
+        <v>49771</v>
       </c>
       <c r="I73" s="11">
-        <v>49771</v>
+        <v>52999</v>
       </c>
       <c r="J73" s="11">
+        <v>53000</v>
+      </c>
+      <c r="K73" s="11">
         <v>52999</v>
       </c>
-      <c r="K73" s="11">
-        <v>53000</v>
-      </c>
       <c r="L73" s="11">
-        <v>52999</v>
+        <v>64184</v>
       </c>
       <c r="M73" s="11">
-        <v>64184</v>
+        <v>64828</v>
       </c>
       <c r="N73" s="11">
-        <v>64828</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>83466</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>20</v>
       </c>
@@ -2989,37 +2989,37 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>360827</v>
+        <v>326882</v>
       </c>
       <c r="F74" s="9">
-        <v>326882</v>
+        <v>32561</v>
       </c>
       <c r="G74" s="9">
-        <v>32561</v>
+        <v>315624</v>
       </c>
       <c r="H74" s="9">
-        <v>315624</v>
+        <v>357383</v>
       </c>
       <c r="I74" s="9">
-        <v>357383</v>
+        <v>309332</v>
       </c>
       <c r="J74" s="9">
-        <v>309332</v>
+        <v>217098</v>
       </c>
       <c r="K74" s="9">
-        <v>217098</v>
+        <v>141438</v>
       </c>
       <c r="L74" s="9">
-        <v>141438</v>
+        <v>339180</v>
       </c>
       <c r="M74" s="9">
-        <v>339180</v>
+        <v>359775</v>
       </c>
       <c r="N74" s="9">
-        <v>359775</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>229030</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>21</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>23</v>
       </c>
@@ -3106,37 +3106,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>52252</v>
+        <v>59531</v>
       </c>
       <c r="F77" s="11">
-        <v>59531</v>
-      </c>
-      <c r="G77" s="11">
         <v>69977</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>17</v>
+      <c r="G77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="11">
+        <v>67514</v>
       </c>
       <c r="I77" s="11">
-        <v>67514</v>
+        <v>55717</v>
       </c>
       <c r="J77" s="11">
-        <v>55717</v>
+        <v>75426</v>
       </c>
       <c r="K77" s="11">
-        <v>75426</v>
-      </c>
-      <c r="L77" s="11">
         <v>74999</v>
       </c>
-      <c r="M77" s="11" t="s">
-        <v>17</v>
+      <c r="L77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="11">
+        <v>200874</v>
       </c>
       <c r="N77" s="11">
-        <v>200874</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>172901</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>25</v>
       </c>
@@ -3145,37 +3145,37 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>4283</v>
+        <v>5296</v>
       </c>
       <c r="F78" s="9">
-        <v>5296</v>
+        <v>5903</v>
       </c>
       <c r="G78" s="9">
-        <v>5903</v>
+        <v>4544</v>
       </c>
       <c r="H78" s="9">
-        <v>4544</v>
+        <v>8224</v>
       </c>
       <c r="I78" s="9">
-        <v>8224</v>
+        <v>6952</v>
       </c>
       <c r="J78" s="9">
-        <v>6952</v>
+        <v>6768</v>
       </c>
       <c r="K78" s="9">
-        <v>6768</v>
+        <v>8946</v>
       </c>
       <c r="L78" s="9">
-        <v>8946</v>
+        <v>8975</v>
       </c>
       <c r="M78" s="9">
-        <v>8975</v>
+        <v>12784</v>
       </c>
       <c r="N78" s="9">
-        <v>12784</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>26</v>
       </c>
@@ -3184,37 +3184,37 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>39469</v>
+        <v>50366</v>
       </c>
       <c r="F79" s="11">
-        <v>50366</v>
+        <v>41525</v>
       </c>
       <c r="G79" s="11">
-        <v>41525</v>
+        <v>57358</v>
       </c>
       <c r="H79" s="11">
-        <v>57358</v>
+        <v>46901</v>
       </c>
       <c r="I79" s="11">
-        <v>46901</v>
+        <v>50166</v>
       </c>
       <c r="J79" s="11">
-        <v>50166</v>
+        <v>62758</v>
       </c>
       <c r="K79" s="11">
-        <v>62758</v>
+        <v>39449</v>
       </c>
       <c r="L79" s="11">
-        <v>39449</v>
+        <v>186687</v>
       </c>
       <c r="M79" s="11">
-        <v>186687</v>
+        <v>120156</v>
       </c>
       <c r="N79" s="11">
-        <v>120156</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26585</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>27</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>28</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>29</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>30</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>31</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3435,20 +3435,20 @@
       <c r="J85" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L85" s="11">
+      <c r="K85" s="11">
         <v>121924</v>
       </c>
-      <c r="M85" s="11" t="s">
-        <v>17</v>
+      <c r="L85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="11">
+        <v>11929</v>
       </c>
       <c r="N85" s="11">
-        <v>11929</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70517</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3463,7 +3463,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3478,7 +3478,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3493,7 +3493,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>45</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3545,7 +3545,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>36</v>
       </c>
@@ -3559,8 +3559,8 @@
       <c r="F91" s="9">
         <v>0</v>
       </c>
-      <c r="G91" s="9">
-        <v>0</v>
+      <c r="G91" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>17</v>
@@ -3584,7 +3584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>18</v>
       </c>
@@ -3593,37 +3593,37 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>-8767</v>
+        <v>-3060</v>
       </c>
       <c r="F92" s="11">
-        <v>-3060</v>
+        <v>-9645</v>
       </c>
       <c r="G92" s="11">
-        <v>-9645</v>
+        <v>-12447</v>
       </c>
       <c r="H92" s="11">
-        <v>-12447</v>
+        <v>-11760</v>
       </c>
       <c r="I92" s="11">
-        <v>-11760</v>
+        <v>-14979</v>
       </c>
       <c r="J92" s="11">
-        <v>-14979</v>
+        <v>-2472</v>
       </c>
       <c r="K92" s="11">
-        <v>-2472</v>
+        <v>-27694</v>
       </c>
       <c r="L92" s="11">
-        <v>-27694</v>
+        <v>-17797</v>
       </c>
       <c r="M92" s="11">
-        <v>-17797</v>
+        <v>-33584</v>
       </c>
       <c r="N92" s="11">
-        <v>-33584</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-26006</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>20</v>
       </c>
@@ -3632,37 +3632,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>-284030</v>
+        <v>-187121</v>
       </c>
       <c r="F93" s="9">
-        <v>-187121</v>
+        <v>-105653</v>
       </c>
       <c r="G93" s="9">
-        <v>-105653</v>
+        <v>-135176</v>
       </c>
       <c r="H93" s="9">
-        <v>-135176</v>
+        <v>-387818</v>
       </c>
       <c r="I93" s="9">
-        <v>-387818</v>
+        <v>-312528</v>
       </c>
       <c r="J93" s="9">
-        <v>-312528</v>
+        <v>-157557</v>
       </c>
       <c r="K93" s="9">
-        <v>-157557</v>
+        <v>-64212</v>
       </c>
       <c r="L93" s="9">
-        <v>-64212</v>
+        <v>-182319</v>
       </c>
       <c r="M93" s="9">
-        <v>-182319</v>
+        <v>-608505</v>
       </c>
       <c r="N93" s="9">
-        <v>-608505</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-313615</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>23</v>
       </c>
@@ -3671,37 +3671,37 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>-23209</v>
+        <v>-22554</v>
       </c>
       <c r="F94" s="11">
-        <v>-22554</v>
+        <v>-14156</v>
       </c>
       <c r="G94" s="11">
-        <v>-14156</v>
+        <v>0</v>
       </c>
       <c r="H94" s="11">
-        <v>0</v>
+        <v>-2050</v>
       </c>
       <c r="I94" s="11">
-        <v>-2050</v>
+        <v>-16342</v>
       </c>
       <c r="J94" s="11">
-        <v>-16342</v>
+        <v>-9543</v>
       </c>
       <c r="K94" s="11">
-        <v>-9543</v>
+        <v>-911</v>
       </c>
       <c r="L94" s="11">
-        <v>-911</v>
+        <v>-2069</v>
       </c>
       <c r="M94" s="11">
-        <v>-2069</v>
+        <v>-94989</v>
       </c>
       <c r="N94" s="11">
-        <v>-94989</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-135553</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>25</v>
       </c>
@@ -3710,37 +3710,37 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>-144720</v>
+        <v>-176297</v>
       </c>
       <c r="F95" s="9">
-        <v>-176297</v>
+        <v>-144613</v>
       </c>
       <c r="G95" s="9">
-        <v>-144613</v>
+        <v>-84797</v>
       </c>
       <c r="H95" s="9">
-        <v>-84797</v>
+        <v>-606505</v>
       </c>
       <c r="I95" s="9">
-        <v>-606505</v>
+        <v>-386905</v>
       </c>
       <c r="J95" s="9">
-        <v>-386905</v>
+        <v>-283421</v>
       </c>
       <c r="K95" s="9">
-        <v>-283421</v>
+        <v>-419829</v>
       </c>
       <c r="L95" s="9">
-        <v>-419829</v>
+        <v>-419682</v>
       </c>
       <c r="M95" s="9">
-        <v>-419682</v>
+        <v>-632938</v>
       </c>
       <c r="N95" s="9">
-        <v>-632938</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-948270</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>26</v>
       </c>
@@ -3749,37 +3749,37 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>-126537</v>
+        <v>-247577</v>
       </c>
       <c r="F96" s="11">
-        <v>-247577</v>
+        <v>-210243</v>
       </c>
       <c r="G96" s="11">
-        <v>-210243</v>
+        <v>-251379</v>
       </c>
       <c r="H96" s="11">
-        <v>-251379</v>
+        <v>-247733</v>
       </c>
       <c r="I96" s="11">
-        <v>-247733</v>
+        <v>-286600</v>
       </c>
       <c r="J96" s="11">
-        <v>-286600</v>
+        <v>-249727</v>
       </c>
       <c r="K96" s="11">
-        <v>-249727</v>
+        <v>-260505</v>
       </c>
       <c r="L96" s="11">
-        <v>-260505</v>
+        <v>-769179</v>
       </c>
       <c r="M96" s="11">
-        <v>-769179</v>
+        <v>-269139</v>
       </c>
       <c r="N96" s="11">
-        <v>-269139</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-561718</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>31</v>
       </c>
@@ -3838,11 +3838,11 @@
       <c r="H98" s="11">
         <v>0</v>
       </c>
-      <c r="I98" s="11">
-        <v>0</v>
-      </c>
-      <c r="J98" s="11" t="s">
-        <v>17</v>
+      <c r="I98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0</v>
       </c>
       <c r="K98" s="11">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>32</v>
       </c>
@@ -3880,60 +3880,60 @@
       <c r="I99" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>17</v>
+      <c r="J99" s="9">
+        <v>-53693</v>
       </c>
       <c r="K99" s="9">
-        <v>-53693</v>
+        <v>-39548</v>
       </c>
       <c r="L99" s="9">
-        <v>-39548</v>
+        <v>-34911</v>
       </c>
       <c r="M99" s="9">
-        <v>-34911</v>
+        <v>-11092</v>
       </c>
       <c r="N99" s="9">
-        <v>-11092</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-27919</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>-587263</v>
+        <v>-636609</v>
       </c>
       <c r="F100" s="13">
-        <v>-636609</v>
+        <v>-484310</v>
       </c>
       <c r="G100" s="13">
-        <v>-484310</v>
+        <v>-483799</v>
       </c>
       <c r="H100" s="13">
-        <v>-483799</v>
+        <v>-1255866</v>
       </c>
       <c r="I100" s="13">
-        <v>-1255866</v>
+        <v>-1017354</v>
       </c>
       <c r="J100" s="13">
-        <v>-1017354</v>
+        <v>-756413</v>
       </c>
       <c r="K100" s="13">
-        <v>-756413</v>
+        <v>-812699</v>
       </c>
       <c r="L100" s="13">
-        <v>-812699</v>
+        <v>-1425957</v>
       </c>
       <c r="M100" s="13">
-        <v>-1425957</v>
+        <v>-1650247</v>
       </c>
       <c r="N100" s="13">
-        <v>-1650247</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2013081</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3948,7 +3948,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3963,7 +3963,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3978,7 +3978,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>46</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4030,7 +4030,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>36</v>
       </c>
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>-3547</v>
+        <v>-80979</v>
       </c>
       <c r="F106" s="9">
-        <v>-80979</v>
-      </c>
-      <c r="G106" s="9">
         <v>116128</v>
       </c>
+      <c r="G106" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H106" s="9" t="s">
         <v>17</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>18</v>
       </c>
@@ -4078,37 +4078,37 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>1536</v>
+        <v>1598</v>
       </c>
       <c r="F107" s="11">
-        <v>1598</v>
+        <v>2109</v>
       </c>
       <c r="G107" s="11">
-        <v>2109</v>
+        <v>3093</v>
       </c>
       <c r="H107" s="11">
-        <v>3093</v>
+        <v>842</v>
       </c>
       <c r="I107" s="11">
-        <v>842</v>
+        <v>5341</v>
       </c>
       <c r="J107" s="11">
-        <v>5341</v>
+        <v>708</v>
       </c>
       <c r="K107" s="11">
-        <v>708</v>
+        <v>2618</v>
       </c>
       <c r="L107" s="11">
-        <v>2618</v>
+        <v>2808</v>
       </c>
       <c r="M107" s="11">
-        <v>2808</v>
+        <v>7136</v>
       </c>
       <c r="N107" s="11">
-        <v>7136</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1401</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>20</v>
       </c>
@@ -4117,37 +4117,37 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
-        <v>397363</v>
+        <v>341865</v>
       </c>
       <c r="F108" s="9">
-        <v>341865</v>
+        <v>-95025</v>
       </c>
       <c r="G108" s="9">
-        <v>-95025</v>
+        <v>102759</v>
       </c>
       <c r="H108" s="9">
-        <v>102759</v>
+        <v>126089</v>
       </c>
       <c r="I108" s="9">
-        <v>126089</v>
+        <v>218493</v>
       </c>
       <c r="J108" s="9">
-        <v>218493</v>
+        <v>104935</v>
       </c>
       <c r="K108" s="9">
-        <v>104935</v>
+        <v>-5059</v>
       </c>
       <c r="L108" s="9">
-        <v>-5059</v>
+        <v>77479</v>
       </c>
       <c r="M108" s="9">
-        <v>77479</v>
+        <v>162468</v>
       </c>
       <c r="N108" s="9">
-        <v>162468</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-159303</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>23</v>
       </c>
@@ -4156,37 +4156,37 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>-2684</v>
+        <v>7988</v>
       </c>
       <c r="F109" s="11">
-        <v>7988</v>
+        <v>98</v>
       </c>
       <c r="G109" s="11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H109" s="11">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="I109" s="11">
-        <v>313</v>
+        <v>5014</v>
       </c>
       <c r="J109" s="11">
-        <v>5014</v>
+        <v>17962</v>
       </c>
       <c r="K109" s="11">
-        <v>17962</v>
+        <v>2408</v>
       </c>
       <c r="L109" s="11">
-        <v>2408</v>
+        <v>-2069</v>
       </c>
       <c r="M109" s="11">
-        <v>-2069</v>
+        <v>33938</v>
       </c>
       <c r="N109" s="11">
-        <v>33938</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-18352</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>25</v>
       </c>
@@ -4195,37 +4195,37 @@
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
-        <v>45411</v>
+        <v>91773</v>
       </c>
       <c r="F110" s="9">
-        <v>91773</v>
+        <v>-3680</v>
       </c>
       <c r="G110" s="9">
-        <v>-3680</v>
+        <v>7099</v>
       </c>
       <c r="H110" s="9">
-        <v>7099</v>
+        <v>477965</v>
       </c>
       <c r="I110" s="9">
-        <v>477965</v>
+        <v>243144</v>
       </c>
       <c r="J110" s="9">
-        <v>243144</v>
+        <v>119257</v>
       </c>
       <c r="K110" s="9">
-        <v>119257</v>
+        <v>317728</v>
       </c>
       <c r="L110" s="9">
-        <v>317728</v>
+        <v>260074</v>
       </c>
       <c r="M110" s="9">
-        <v>260074</v>
+        <v>479730</v>
       </c>
       <c r="N110" s="9">
-        <v>479730</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-370978</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>26</v>
       </c>
@@ -4234,37 +4234,37 @@
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>195412</v>
+        <v>137456</v>
       </c>
       <c r="F111" s="11">
-        <v>137456</v>
+        <v>241633</v>
       </c>
       <c r="G111" s="11">
-        <v>241633</v>
+        <v>119342</v>
       </c>
       <c r="H111" s="11">
-        <v>119342</v>
+        <v>245975</v>
       </c>
       <c r="I111" s="11">
-        <v>245975</v>
+        <v>97840</v>
       </c>
       <c r="J111" s="11">
-        <v>97840</v>
+        <v>162089</v>
       </c>
       <c r="K111" s="11">
-        <v>162089</v>
+        <v>87212</v>
       </c>
       <c r="L111" s="11">
-        <v>87212</v>
+        <v>589796</v>
       </c>
       <c r="M111" s="11">
-        <v>589796</v>
+        <v>386536</v>
       </c>
       <c r="N111" s="11">
-        <v>386536</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-425675</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>29</v>
       </c>
@@ -4273,37 +4273,37 @@
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9">
-        <v>-142059</v>
+        <v>-81455</v>
       </c>
       <c r="F112" s="9">
-        <v>-81455</v>
+        <v>-162469</v>
       </c>
       <c r="G112" s="9">
-        <v>-162469</v>
+        <v>-40336</v>
       </c>
       <c r="H112" s="9">
-        <v>-40336</v>
+        <v>-172858</v>
       </c>
       <c r="I112" s="9">
-        <v>-172858</v>
+        <v>-140160</v>
       </c>
       <c r="J112" s="9">
-        <v>-140160</v>
+        <v>-162249</v>
       </c>
       <c r="K112" s="9">
-        <v>-162249</v>
+        <v>-134348</v>
       </c>
       <c r="L112" s="9">
-        <v>-134348</v>
+        <v>-274171</v>
       </c>
       <c r="M112" s="9">
-        <v>-274171</v>
+        <v>-287425</v>
       </c>
       <c r="N112" s="9">
-        <v>-287425</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>695944</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>31</v>
       </c>
@@ -4323,11 +4323,11 @@
       <c r="H113" s="11">
         <v>0</v>
       </c>
-      <c r="I113" s="11">
-        <v>0</v>
-      </c>
-      <c r="J113" s="11" t="s">
-        <v>17</v>
+      <c r="I113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" s="11">
+        <v>0</v>
       </c>
       <c r="K113" s="11">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>32</v>
       </c>
@@ -4365,57 +4365,57 @@
       <c r="I114" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J114" s="9" t="s">
-        <v>17</v>
+      <c r="J114" s="9">
+        <v>35180</v>
       </c>
       <c r="K114" s="9">
-        <v>35180</v>
+        <v>6522</v>
       </c>
       <c r="L114" s="9">
-        <v>6522</v>
+        <v>8011</v>
       </c>
       <c r="M114" s="9">
-        <v>8011</v>
+        <v>7521</v>
       </c>
       <c r="N114" s="9">
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-11151</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13">
-        <v>491432</v>
+        <v>418246</v>
       </c>
       <c r="F115" s="13">
-        <v>418246</v>
+        <v>98794</v>
       </c>
       <c r="G115" s="13">
-        <v>98794</v>
+        <v>191957</v>
       </c>
       <c r="H115" s="13">
-        <v>191957</v>
+        <v>678326</v>
       </c>
       <c r="I115" s="13">
-        <v>678326</v>
+        <v>429672</v>
       </c>
       <c r="J115" s="13">
-        <v>429672</v>
+        <v>277882</v>
       </c>
       <c r="K115" s="13">
-        <v>277882</v>
+        <v>277081</v>
       </c>
       <c r="L115" s="13">
-        <v>277081</v>
+        <v>661928</v>
       </c>
       <c r="M115" s="13">
-        <v>661928</v>
+        <v>789904</v>
       </c>
       <c r="N115" s="13">
-        <v>789904</v>
+        <v>-290916</v>
       </c>
     </row>
   </sheetData>
